--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject44.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject44.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,7 +131,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.78416164884345774</v>
       </c>
       <c r="C1" s="0">
         <v>0</v>
@@ -143,19 +143,19 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0</v>
+        <v>0.66620591699945053</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
       </c>
       <c r="H1" s="0">
-        <v>0</v>
+        <v>0.90455708421368763</v>
       </c>
       <c r="I1" s="0">
         <v>0</v>
       </c>
       <c r="J1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="0">
         <v>0</v>
@@ -221,13 +221,13 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>0</v>
+        <v>0.51705786090221939</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.69236167006300597</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>0.55496490293164302</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>0.71375329044786828</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="0">
         <v>0</v>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="AQ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="0">
         <v>0</v>
       </c>
       <c r="AS2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="0">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="BN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.82877181920405674</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>0</v>
+        <v>0.99919766197086968</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0</v>
+        <v>0.60482106871568608</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="AB4" s="0">
-        <v>0</v>
+        <v>0.82909337285643259</v>
       </c>
       <c r="AC4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0.73156942890665999</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>0</v>
+        <v>0.65461618389011256</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="AY4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="0">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.95076031997973831</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>0.7752390743550186</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>0</v>
+        <v>0.94395028574901585</v>
       </c>
       <c r="I5" s="0">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
       </c>
       <c r="W5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="0">
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>0</v>
+        <v>0.74181490137579043</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="0">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="BL5" s="0">
-        <v>0</v>
+        <v>0.92486980175470046</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.85498687024738396</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0</v>
+        <v>0.55288021084429784</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0</v>
+        <v>0.57792831292957925</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="0">
-        <v>1</v>
+        <v>0.61115377231529799</v>
       </c>
       <c r="BJ6" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="0">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
       </c>
       <c r="AH7" s="0">
-        <v>0</v>
+        <v>0.92038371013466147</v>
       </c>
       <c r="AI7" s="0">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>0</v>
+        <v>0.92644377959561652</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0</v>
+        <v>0.62017392412466044</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0</v>
+        <v>0.75315318933941766</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.664840198416494</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0</v>
+        <v>0.52148775601104291</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="0">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0</v>
+        <v>0.58264718650777869</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0</v>
+        <v>0.62067690161346567</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="0">
-        <v>0</v>
+        <v>0.67874347656035394</v>
       </c>
       <c r="AS9" s="0">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0</v>
+        <v>0.54867169577189423</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.9630396166848425</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.87423476261147026</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0</v>
+        <v>0.52980472983170168</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AS10" s="0">
-        <v>0</v>
+        <v>0.52824894378562259</v>
       </c>
       <c r="AT10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0</v>
+        <v>0.78259020711858984</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0</v>
+        <v>0.7117594804616123</v>
       </c>
       <c r="BL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="BP11" s="0">
-        <v>1</v>
+        <v>0.76333232770214265</v>
       </c>
     </row>
     <row r="12">
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.91644626966714338</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="0">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0</v>
+        <v>0.51980878232724903</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="0">
-        <v>0</v>
+        <v>0.91080694773838555</v>
       </c>
       <c r="AU12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>0</v>
+        <v>0.82936424558126032</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="BM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.66456908662267111</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0</v>
+        <v>0.92138963184888878</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="BH13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0</v>
+        <v>0.71051076285909698</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0</v>
+        <v>0.60039123663528549</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0</v>
+        <v>0.56313497034067717</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0</v>
+        <v>0.92470099647095738</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.70822846079035984</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.60015879760849011</v>
       </c>
       <c r="R15" s="0">
-        <v>0</v>
+        <v>0.51345571401992451</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="0">
         <v>0</v>
@@ -3165,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="AZ15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="0">
-        <v>0</v>
+        <v>0.83494007436054107</v>
       </c>
       <c r="BB15" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.82246155104953766</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0</v>
+        <v>0.84503956997046181</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0</v>
+        <v>0.70324324143268502</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" s="0">
-        <v>0</v>
+        <v>0.76134369112401323</v>
       </c>
       <c r="BA16" s="0">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="BF16" s="0">
-        <v>0</v>
+        <v>0.83653713290032194</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.83060336028936765</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.52902120066025682</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.90156783621490333</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.60817377241995918</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="0">
-        <v>0</v>
+        <v>0.6633203061814168</v>
       </c>
       <c r="AT17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>0</v>
+        <v>0.59804921028710756</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3666,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="0">
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>0.50578353608597326</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.77532706209180791</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.83275933763954113</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0</v>
+        <v>0.68197754148809064</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3789,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="BB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="0">
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0</v>
+        <v>0.67532448816273294</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>0</v>
+        <v>0.6461475700869741</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="BM18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="0">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="0">
-        <v>0</v>
+        <v>0.92353311475247946</v>
       </c>
       <c r="O19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0</v>
+        <v>0.51452215338438623</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3935,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="AH19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="0">
-        <v>0</v>
+        <v>0.87178358316016369</v>
       </c>
       <c r="AJ19" s="0">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="BK19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="0">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0">
         <v>0</v>
@@ -4090,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.5911850926980029</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AM20" s="0">
-        <v>0</v>
+        <v>0.74947547423915029</v>
       </c>
       <c r="AN20" s="0">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>0</v>
+        <v>0.7501322328198905</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.63196561739752832</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0</v>
+        <v>0.63106337823734093</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>0</v>
+        <v>0.91726267628834512</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.72650577102738456</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0</v>
+        <v>0.56721838982051698</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="0">
-        <v>0</v>
+        <v>0.97445474623880235</v>
       </c>
       <c r="BC21" s="0">
         <v>0</v>
@@ -4440,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4484,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="0">
-        <v>0</v>
+        <v>0.80550141107019146</v>
       </c>
       <c r="L22" s="0">
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.54298697473140067</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4646,13 +4646,13 @@
         <v>0</v>
       </c>
       <c r="BM22" s="0">
-        <v>0</v>
+        <v>0.89607570401388303</v>
       </c>
       <c r="BN22" s="0">
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.75043638528009293</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4672,13 +4672,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0">
-        <v>0</v>
+        <v>0.98441897553622604</v>
       </c>
       <c r="G23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="0">
-        <v>0</v>
+        <v>0.7906598303380139</v>
       </c>
       <c r="S23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0</v>
+        <v>0.6419714174005462</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4822,19 +4822,19 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>0</v>
+        <v>0.70289120352199452</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
       </c>
       <c r="BE23" s="0">
-        <v>0</v>
+        <v>0.90718493640478304</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>1</v>
+        <v>0.58853419720615541</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.64050075593266209</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>0</v>
+        <v>0.65959312862643493</v>
       </c>
       <c r="AE24" s="0">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.81374314911227819</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>0</v>
+        <v>0.77852446872220171</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0</v>
+        <v>0.85296738049122123</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>0</v>
+        <v>0.94052855168957772</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="W26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="0">
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>0</v>
+        <v>0.54249310736996481</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.94476738203202282</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="0">
         <v>0</v>
@@ -5673,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.65304054615825113</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.72485347831311686</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>0</v>
+        <v>0.65203364539571607</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.94799239654929868</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0</v>
+        <v>0.72910290023912472</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>0</v>
+        <v>0.50178383643178792</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>0</v>
+        <v>0.93172877985816394</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="0">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="0">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="0">
-        <v>0</v>
+        <v>0.94992004783280826</v>
       </c>
       <c r="V29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0</v>
+        <v>0.71767562052631195</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0</v>
+        <v>0.88020636348068437</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>0</v>
+        <v>0.75017254853523463</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0</v>
+        <v>0.75795967033498368</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0.71500593828645798</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="0">
-        <v>0</v>
+        <v>0.71326907200010425</v>
       </c>
       <c r="O30" s="0">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.9483495904579744</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6171,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="0">
-        <v>0</v>
+        <v>0.7682732439946186</v>
       </c>
       <c r="Y30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>0</v>
+        <v>0.7467920205622588</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>0</v>
+        <v>0.65327390002320262</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="0">
         <v>0</v>
@@ -6401,13 +6401,13 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.66092303438019506</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.76789243874520186</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6446,13 +6446,13 @@
         <v>0</v>
       </c>
       <c r="AU31" s="0">
-        <v>0</v>
+        <v>0.99168118790609783</v>
       </c>
       <c r="AV31" s="0">
         <v>0</v>
       </c>
       <c r="AW31" s="0">
-        <v>1</v>
+        <v>0.74338809681612128</v>
       </c>
       <c r="AX31" s="0">
         <v>0</v>
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="0">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>0.95393137257071392</v>
       </c>
       <c r="B32" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6595,16 +6595,16 @@
         <v>0</v>
       </c>
       <c r="AB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="0">
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="BC32" s="0">
-        <v>0</v>
+        <v>0.80187127426857052</v>
       </c>
       <c r="BD32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="0">
-        <v>0</v>
+        <v>0.96412352067550056</v>
       </c>
       <c r="I33" s="0">
         <v>0</v>
       </c>
       <c r="J33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="0">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.88476704080046087</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0</v>
+        <v>0.923011409154463</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="BC33" s="0">
-        <v>0</v>
+        <v>0.63215854563025697</v>
       </c>
       <c r="BD33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>0</v>
+        <v>0.83656128389190276</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="Z34" s="0">
-        <v>0</v>
+        <v>0.64109067686866372</v>
       </c>
       <c r="AA34" s="0">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.58814962252525294</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="AX34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="0">
         <v>0</v>
@@ -7106,13 +7106,13 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0</v>
+        <v>0.71449145259320646</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
       </c>
       <c r="BK34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="0">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>0</v>
+        <v>0.74004659855184829</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0</v>
+        <v>0.75473814444180076</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0</v>
+        <v>0.67596338942845824</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7309,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>0</v>
+        <v>0.93869573945314244</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
       </c>
       <c r="BJ35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0</v>
+        <v>0.81041112848726249</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>0</v>
+        <v>0.81118862667380376</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="BP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0</v>
+        <v>0.92244831255887427</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0</v>
+        <v>0.68599555520115452</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7706,13 +7706,13 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
       </c>
       <c r="BE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
+        <v>0.5507275936230398</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="0">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
       <c r="AY38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0</v>
+        <v>0.72293304960911908</v>
       </c>
     </row>
     <row r="39">
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="0">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0</v>
+        <v>0.55266782352403987</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.95814603719574243</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.85721532823989377</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0</v>
+        <v>0.69323458599077681</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>0.78701823051812148</v>
       </c>
       <c r="E40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="0">
-        <v>0</v>
+        <v>0.79564351452186521</v>
       </c>
       <c r="AE40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.92367077830452571</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AQ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR40" s="0">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>0</v>
+        <v>0.53726240522779423</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="0">
-        <v>0</v>
+        <v>0.55218274519606725</v>
       </c>
       <c r="M41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.77027135792845502</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.63669538508495216</v>
       </c>
       <c r="AR41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
@@ -8521,19 +8521,19 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>0</v>
+        <v>0.92973925012031533</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
       </c>
       <c r="BB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="0">
         <v>0</v>
       </c>
       <c r="BD41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8715,10 +8715,10 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0</v>
+        <v>0.52930244367282098</v>
       </c>
       <c r="AW42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8760,19 +8760,19 @@
         <v>0</v>
       </c>
       <c r="BK42" s="0">
-        <v>0</v>
+        <v>0.70646068707827092</v>
       </c>
       <c r="BL42" s="0">
         <v>0</v>
       </c>
       <c r="BM42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN42" s="0">
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0</v>
+        <v>0.5716808857447977</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="0">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AC43" s="0">
-        <v>0</v>
+        <v>0.98621053939804493</v>
       </c>
       <c r="AD43" s="0">
         <v>0</v>
@@ -8897,10 +8897,10 @@
         <v>0</v>
       </c>
       <c r="AN43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.90893404557903157</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="AV43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="0">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="BH43" s="0">
-        <v>0</v>
+        <v>0.99291131254780174</v>
       </c>
       <c r="BI43" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0</v>
+        <v>0.55244077733955299</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="AB44" s="0">
-        <v>0</v>
+        <v>0.74288049906569664</v>
       </c>
       <c r="AC44" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9145,10 +9145,10 @@
         <v>0</v>
       </c>
       <c r="BB44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC44" s="0">
-        <v>0</v>
+        <v>0.71257846637760747</v>
       </c>
       <c r="BD44" s="0">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="BO44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44" s="0">
         <v>0</v>
@@ -9195,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>0</v>
+        <v>0.50544243308672976</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0</v>
+        <v>0.60690774963519956</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.55405769164483898</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>0</v>
+        <v>0.91942276243995069</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>0</v>
+        <v>0.71100307136335594</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="AG46" s="0">
-        <v>0</v>
+        <v>0.94688881912146661</v>
       </c>
       <c r="AH46" s="0">
         <v>0</v>
       </c>
       <c r="AI46" s="0">
-        <v>0</v>
+        <v>0.74190367593339823</v>
       </c>
       <c r="AJ46" s="0">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.81335052316286394</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9554,13 +9554,13 @@
         <v>0</v>
       </c>
       <c r="BA46" s="0">
-        <v>0</v>
+        <v>0.70320467825405331</v>
       </c>
       <c r="BB46" s="0">
         <v>0</v>
       </c>
       <c r="BC46" s="0">
-        <v>0</v>
+        <v>0.8660792147924451</v>
       </c>
       <c r="BD46" s="0">
         <v>0</v>
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH46" s="0">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>0</v>
+        <v>0.54920347992827911</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="0">
-        <v>0</v>
+        <v>0.98436135691221893</v>
       </c>
       <c r="G47" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9670,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>0</v>
+        <v>0.6648004367351219</v>
       </c>
       <c r="X47" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0</v>
+        <v>0.66157169764759338</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0</v>
+        <v>0.60207512168474309</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="BN47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO47" s="0">
         <v>0</v>
@@ -9933,10 +9933,10 @@
         <v>0</v>
       </c>
       <c r="AP48" s="0">
-        <v>0</v>
+        <v>0.8635278694658024</v>
       </c>
       <c r="AQ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9975,19 +9975,19 @@
         <v>0</v>
       </c>
       <c r="BD48" s="0">
-        <v>0</v>
+        <v>0.99925294392696873</v>
       </c>
       <c r="BE48" s="0">
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
       </c>
       <c r="BH48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI48" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0</v>
+        <v>0.71651488084590675</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>0</v>
+        <v>0.99268268652857761</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0</v>
+        <v>0.56288868886467658</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>1</v>
+        <v>0.5040294748989167</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="AP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.96108707625798906</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.58386030323637039</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.7258024617900064</v>
       </c>
       <c r="BA50" s="0">
-        <v>0</v>
+        <v>0.60262948875336964</v>
       </c>
       <c r="BB50" s="0">
-        <v>0</v>
+        <v>0.80398493519506764</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>0</v>
+        <v>0.74225583815685958</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="AL51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>1</v>
+        <v>0.51161970410533097</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10608,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0</v>
+        <v>0.60779089679782361</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>0</v>
+        <v>0.92659917968863392</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10629,7 +10629,7 @@
         <v>0</v>
       </c>
       <c r="BP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10676,10 +10676,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>0</v>
+        <v>0.566011118125886</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0</v>
+        <v>0.7355646244945927</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.8595131695709477</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0</v>
+        <v>0.733759661357406</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10972,10 +10972,10 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0</v>
+        <v>0.65832889013630758</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="AX53" s="0">
-        <v>0</v>
+        <v>0.85253074842656362</v>
       </c>
       <c r="AY53" s="0">
         <v>0</v>
@@ -11029,10 +11029,10 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.85932892443817033</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0</v>
+        <v>0.97940839268555013</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="R54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>0</v>
+        <v>0.64874798837430592</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11124,10 +11124,10 @@
         <v>0</v>
       </c>
       <c r="AA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="0">
-        <v>0</v>
+        <v>0.57615970351390922</v>
       </c>
       <c r="AC54" s="0">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="AE54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="0">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="0">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="AR54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="0">
         <v>0</v>
@@ -11193,13 +11193,13 @@
         <v>0</v>
       </c>
       <c r="AX54" s="0">
-        <v>0</v>
+        <v>0.86987683554560269</v>
       </c>
       <c r="AY54" s="0">
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ54" s="0">
         <v>0</v>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
+        <v>0.61770303263545068</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>0</v>
+        <v>0.50677796447847934</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0</v>
+        <v>0.52296123613583245</v>
       </c>
       <c r="AG55" s="0">
-        <v>0</v>
+        <v>0.50493969698565411</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11381,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0</v>
+        <v>0.66620915581281048</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0</v>
+        <v>0.5030210034286986</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0</v>
+        <v>0.74005503640041792</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0</v>
+        <v>0.86807420133542301</v>
       </c>
     </row>
     <row r="56">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="R56" s="0">
-        <v>0</v>
+        <v>0.87863292442258079</v>
       </c>
       <c r="S56" s="0">
         <v>0</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="AO56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP56" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0</v>
+        <v>0.61808877507866733</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.89629641488710643</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11644,13 +11644,13 @@
         <v>0</v>
       </c>
       <c r="BK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56" s="0">
         <v>0</v>
       </c>
       <c r="BM56" s="0">
-        <v>0</v>
+        <v>0.77548384137207471</v>
       </c>
       <c r="BN56" s="0">
         <v>0</v>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="0">
-        <v>0</v>
+        <v>0.85153589361618387</v>
       </c>
       <c r="M57" s="0">
         <v>0</v>
@@ -11721,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="0">
         <v>0</v>
@@ -11730,10 +11730,10 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0</v>
+        <v>0.83466910952891071</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.93681558361451822</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11769,10 +11769,10 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="0">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="AY57" s="0">
-        <v>1</v>
+        <v>0.97993151221041896</v>
       </c>
       <c r="AZ57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11915,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>0</v>
+        <v>0.78460038904373131</v>
       </c>
       <c r="Q58" s="0">
-        <v>0</v>
+        <v>0.66850452686531514</v>
       </c>
       <c r="R58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.5773202852976933</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.60368194740157533</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="BM58" s="0">
-        <v>0</v>
+        <v>0.97741174280315568</v>
       </c>
       <c r="BN58" s="0">
         <v>0</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0.59322550742158509</v>
       </c>
       <c r="X59" s="0">
         <v>0</v>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="AT59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.55073511338015302</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.52227253102119087</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>0</v>
+        <v>0.70578146606242553</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0</v>
+        <v>0.54285640846221961</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0</v>
+        <v>0.77364696049948456</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12405,10 +12405,10 @@
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0</v>
+        <v>0.88382367231180314</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12420,10 +12420,10 @@
         <v>0</v>
       </c>
       <c r="AU60" s="0">
-        <v>0</v>
+        <v>0.6602683391715426</v>
       </c>
       <c r="AV60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.82915938569524017</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="BN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO60" s="0">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>1</v>
+        <v>0.56786443308207468</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="AH61" s="0">
-        <v>0</v>
+        <v>0.74364389979701484</v>
       </c>
       <c r="AI61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>0</v>
+        <v>0.8425806142578347</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0</v>
+        <v>0.58535663455229714</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>0</v>
+        <v>0.66884451105271148</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12647,10 +12647,10 @@
         <v>0</v>
       </c>
       <c r="BB61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>0</v>
+        <v>0.77613683286963164</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12662,10 +12662,10 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.91395192603652464</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.96875790469893075</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12677,13 +12677,13 @@
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0.93611472931350292</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
       </c>
       <c r="BN61" s="0">
-        <v>0</v>
+        <v>0.90873892355127617</v>
       </c>
       <c r="BO61" s="0">
         <v>0</v>
@@ -12703,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="0">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" s="0">
         <v>0</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="AI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="0">
         <v>0</v>
@@ -12811,10 +12811,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="0">
-        <v>0</v>
+        <v>0.68621793457018776</v>
       </c>
       <c r="AO62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.72063340652540631</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="0">
-        <v>0</v>
+        <v>0.97434625753990756</v>
       </c>
       <c r="L63" s="0">
         <v>0</v>
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" s="0">
         <v>0</v>
@@ -12999,13 +12999,13 @@
         <v>0</v>
       </c>
       <c r="AH63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="0">
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0</v>
+        <v>0.77403324852376287</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>0</v>
+        <v>0.51074724014395656</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13044,13 +13044,13 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="0">
         <v>0</v>
       </c>
       <c r="AY63" s="0">
-        <v>0</v>
+        <v>0.93820250355220702</v>
       </c>
       <c r="AZ63" s="0">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="BD63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE63" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>0.86633039649742694</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13130,13 +13130,13 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0</v>
+        <v>0.56928162314664288</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13184,13 +13184,13 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
-        <v>0</v>
+        <v>0.79302223812095263</v>
       </c>
       <c r="AD64" s="0">
         <v>0</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="AV64" s="0">
-        <v>0</v>
+        <v>0.90518136487794498</v>
       </c>
       <c r="AW64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13286,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0.68681886628078359</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.76694240168852035</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13345,10 +13345,10 @@
         <v>0</v>
       </c>
       <c r="L65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0</v>
+        <v>0.84783964924025201</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13363,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="R65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S65" s="0">
         <v>0</v>
@@ -13372,10 +13372,10 @@
         <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0</v>
+        <v>0.62617746350811654</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.83782269885619276</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="AD65" s="0">
-        <v>0</v>
+        <v>0.68842243349266985</v>
       </c>
       <c r="AE65" s="0">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
       <c r="AP65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.87614785646320215</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13477,13 +13477,13 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>0</v>
+        <v>0.88792154158262737</v>
       </c>
       <c r="BE65" s="0">
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>0</v>
+        <v>0.95966661203634562</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.55050570329226534</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="AU66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="0">
         <v>0</v>
@@ -13695,10 +13695,10 @@
         <v>0</v>
       </c>
       <c r="BH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0</v>
+        <v>0.64492701576127809</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13781,13 +13781,13 @@
         <v>0</v>
       </c>
       <c r="T67" s="0">
-        <v>0</v>
+        <v>0.89111444604301626</v>
       </c>
       <c r="U67" s="0">
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.96373873758364859</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0</v>
+        <v>0.87370978019158518</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13847,13 +13847,13 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>0</v>
+        <v>0.79008653370281023</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
       </c>
       <c r="AR67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="0">
-        <v>1</v>
+        <v>0.80916777540309459</v>
       </c>
       <c r="L68" s="0">
         <v>0</v>
@@ -14035,13 +14035,13 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="0">
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>0</v>
+        <v>0.91391141285320521</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="AY68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0</v>
+        <v>0.61229375371252615</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject44.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject44.xlsx
@@ -58,7 +58,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0.66620591699945053</v>
+        <v>0.85498687024738396</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -221,7 +221,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="0">
-        <v>0.51705786090221939</v>
+        <v>0.95393137257071392</v>
       </c>
       <c r="AG1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.69236167006300597</v>
+        <v>0.78416164884345774</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.55496490293164302</v>
+        <v>0.83060336028936765</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>0.82877181920405674</v>
+        <v>0.95076031997973831</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.60482106871568608</v>
+        <v>0.7752390743550186</v>
       </c>
       <c r="F4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.65461618389011256</v>
+        <v>0.78701823051812148</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.74181490137579043</v>
+        <v>0.77852446872220171</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0">
-        <v>0.55288021084429784</v>
+        <v>0.98441897553622604</v>
       </c>
       <c r="X6" s="0">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.57792831292957925</v>
+        <v>0.98436135691221893</v>
       </c>
       <c r="AV6" s="0">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.62017392412466044</v>
+        <v>0.90455708421368763</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.75315318933941766</v>
+        <v>0.94395028574901585</v>
       </c>
       <c r="F8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.664840198416494</v>
+        <v>0.9630396166848425</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.52148775601104291</v>
+        <v>0.96412352067550056</v>
       </c>
       <c r="AH8" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>0.58264718650777869</v>
+        <v>0.74004659855184829</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0.54867169577189423</v>
+        <v>0.56928162314664288</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.87423476261147026</v>
+        <v>0.91644626966714338</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.52980472983170168</v>
+        <v>0.81041112848726249</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="0">
-        <v>0.78259020711858984</v>
+        <v>0.80550141107019146</v>
       </c>
       <c r="W11" s="0">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BK11" s="0">
-        <v>0.7117594804616123</v>
+        <v>0.97434625753990756</v>
       </c>
       <c r="BL11" s="0">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="BP11" s="0">
-        <v>0.76333232770214265</v>
+        <v>0.80916777540309459</v>
       </c>
     </row>
     <row r="12">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="0">
-        <v>0.51980878232724903</v>
+        <v>0.55218274519606725</v>
       </c>
       <c r="AP12" s="0">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="0">
-        <v>0.82936424558126032</v>
+        <v>0.85153589361618387</v>
       </c>
       <c r="BF12" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.66456908662267111</v>
+        <v>0.70822846079035984</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0.71051076285909698</v>
+        <v>0.84783964924025201</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0">
-        <v>0.60039123663528549</v>
+        <v>0.92353311475247946</v>
       </c>
       <c r="T14" s="0">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.56313497034067717</v>
+        <v>0.71326907200010425</v>
       </c>
       <c r="AE14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0.92470099647095738</v>
+        <v>0.97940839268555013</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.84503956997046181</v>
+        <v>0.94052855168957772</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0.70324324143268502</v>
+        <v>0.92244831255887427</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.52902120066025682</v>
+        <v>0.60015879760849011</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="BF17" s="0">
-        <v>0.59804921028710756</v>
+        <v>0.66850452686531514</v>
       </c>
       <c r="BG17" s="0">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0.50578353608597326</v>
+        <v>0.51345571401992451</v>
       </c>
       <c r="P18" s="0">
-        <v>0.77532706209180791</v>
+        <v>0.82246155104953766</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.83275933763954113</v>
+        <v>0.90156783621490333</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0">
-        <v>0.68197754148809064</v>
+        <v>0.7906598303380139</v>
       </c>
       <c r="X18" s="0">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="BD18" s="0">
-        <v>0.67532448816273294</v>
+        <v>0.87863292442258079</v>
       </c>
       <c r="BE18" s="0">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.51452215338438623</v>
+        <v>0.63106337823734093</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.5911850926980029</v>
+        <v>0.60817377241995918</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="0">
-        <v>0.7501322328198905</v>
+        <v>0.89111444604301626</v>
       </c>
       <c r="BP20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0.63196561739752832</v>
+        <v>0.71375329044786828</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4332,10 +4332,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.91726267628834512</v>
+        <v>0.94992004783280826</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.72650577102738456</v>
+        <v>0.9483495904579744</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.56721838982051698</v>
+        <v>0.74225583815685958</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="0">
-        <v>0.54298697473140067</v>
+        <v>0.64050075593266209</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0.75043638528009293</v>
+        <v>0.96373873758364859</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="0">
-        <v>0.6419714174005462</v>
+        <v>0.6648004367351219</v>
       </c>
       <c r="AV23" s="0">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="BG23" s="0">
-        <v>0.58853419720615541</v>
+        <v>0.59322550742158509</v>
       </c>
       <c r="BH23" s="0">
         <v>0</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.65959312862643493</v>
+        <v>0.7682732439946186</v>
       </c>
       <c r="AE24" s="0">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.81374314911227819</v>
+        <v>0.93681558361451822</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>0.85296738049122123</v>
+        <v>0.99268268652857761</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="AH26" s="0">
-        <v>0.54249310736996481</v>
+        <v>0.64109067686866372</v>
       </c>
       <c r="AI26" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.94476738203202282</v>
+        <v>0.94799239654929868</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0.65304054615825113</v>
+        <v>0.83782269885619276</v>
       </c>
       <c r="BN27" s="0">
         <v>0.72485347831311686</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="0">
-        <v>0.65203364539571607</v>
+        <v>0.82909337285643259</v>
       </c>
       <c r="E28" s="0">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AR28" s="0">
-        <v>0.72910290023912472</v>
+        <v>0.74288049906569664</v>
       </c>
       <c r="AS28" s="0">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="0">
-        <v>0.50178383643178792</v>
+        <v>0.57615970351390922</v>
       </c>
       <c r="BC28" s="0">
         <v>0</v>
@@ -6022,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0.88020636348068437</v>
+        <v>0.98621053939804493</v>
       </c>
       <c r="AR29" s="0">
         <v>0</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="BL29" s="0">
-        <v>0.75795967033498368</v>
+        <v>0.79302223812095263</v>
       </c>
       <c r="BM29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0.71500593828645798</v>
+        <v>0.73156942890665999</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="0">
-        <v>0.7467920205622588</v>
+        <v>0.79564351452186521</v>
       </c>
       <c r="AO30" s="0">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="BM30" s="0">
-        <v>0.65327390002320262</v>
+        <v>0.68842243349266985</v>
       </c>
       <c r="BN30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.66092303438019506</v>
+        <v>0.88476704080046087</v>
       </c>
       <c r="AH31" s="0">
         <v>0.76789243874520186</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="0">
-        <v>0.923011409154463</v>
+        <v>0.94688881912146661</v>
       </c>
       <c r="AU33" s="0">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="0">
-        <v>0.83656128389190276</v>
+        <v>0.92038371013466147</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0.58814962252525294</v>
+        <v>0.76789243874520186</v>
       </c>
       <c r="AF34" s="0">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="BI34" s="0">
-        <v>0.71449145259320646</v>
+        <v>0.74364389979701484</v>
       </c>
       <c r="BJ34" s="0">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="0">
-        <v>0.75473814444180076</v>
+        <v>0.87178358316016369</v>
       </c>
       <c r="T35" s="0">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="0">
-        <v>0.67596338942845824</v>
+        <v>0.74190367593339823</v>
       </c>
       <c r="AU35" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0.68599555520115452</v>
+        <v>0.71767562052631195</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0.5507275936230398</v>
+        <v>0.62067690161346567</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>0.72293304960911908</v>
+        <v>0.91391141285320521</v>
       </c>
     </row>
     <row r="39">
@@ -8013,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>0.55266782352403987</v>
+        <v>0.74947547423915029</v>
       </c>
       <c r="U39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>0.69323458599077681</v>
+        <v>0.8425806142578347</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.92367077830452571</v>
+        <v>0.95814603719574243</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>0.53726240522779423</v>
+        <v>0.68621793457018776</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.77027135792845502</v>
+        <v>0.85721532823989377</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.63669538508495216</v>
+        <v>0.90893404557903157</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AV42" s="0">
-        <v>0.52930244367282098</v>
+        <v>0.8635278694658024</v>
       </c>
       <c r="AW42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0.5716808857447977</v>
+        <v>0.79008653370281023</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="0">
-        <v>0.55244077733955299</v>
+        <v>0.67874347656035394</v>
       </c>
       <c r="J44" s="0">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="0">
-        <v>0.50544243308672976</v>
+        <v>0.52824894378562259</v>
       </c>
       <c r="K45" s="0">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.60690774963519956</v>
+        <v>0.6633203061814168</v>
       </c>
       <c r="R45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.55405769164483898</v>
+        <v>0.81335052316286394</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>0.71100307136335594</v>
+        <v>0.91080694773838555</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>0.54920347992827911</v>
+        <v>0.99919766197086968</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="0">
-        <v>0.66157169764759338</v>
+        <v>0.99168118790609783</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="BH47" s="0">
-        <v>0.60207512168474309</v>
+        <v>0.6602683391715426</v>
       </c>
       <c r="BI47" s="0">
         <v>0</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="BL48" s="0">
-        <v>0.71651488084590675</v>
+        <v>0.90518136487794498</v>
       </c>
       <c r="BM48" s="0">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.56288868886467658</v>
+        <v>0.75017254853523463</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
       </c>
       <c r="AE49" s="0">
-        <v>0.5040294748989167</v>
+        <v>0.74338809681612128</v>
       </c>
       <c r="AF49" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.58386030323637039</v>
+        <v>0.96108707625798906</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.7258024617900064</v>
+        <v>0.8595131695709477</v>
       </c>
       <c r="BA50" s="0">
-        <v>0.60262948875336964</v>
+        <v>0.85253074842656362</v>
       </c>
       <c r="BB50" s="0">
-        <v>0.80398493519506764</v>
+        <v>0.86987683554560269</v>
       </c>
       <c r="BC50" s="0">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="BE51" s="0">
-        <v>0.51161970410533097</v>
+        <v>0.97993151221041896</v>
       </c>
       <c r="BF51" s="0">
         <v>0</v>
@@ -10608,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>0.60779089679782361</v>
+        <v>0.66884451105271148</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
       </c>
       <c r="BK51" s="0">
-        <v>0.92659917968863392</v>
+        <v>0.93820250355220702</v>
       </c>
       <c r="BL51" s="0">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="0">
-        <v>0.566011118125886</v>
+        <v>0.76134369112401323</v>
       </c>
       <c r="Q52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>0.7355646244945927</v>
+        <v>0.92973925012031533</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="0">
-        <v>0.733759661357406</v>
+        <v>0.83494007436054107</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="AT53" s="0">
-        <v>0.65832889013630758</v>
+        <v>0.70320467825405331</v>
       </c>
       <c r="AU53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0.85932892443817033</v>
+        <v>0.87614785646320215</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>0.64874798837430592</v>
+        <v>0.97445474623880235</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0.61770303263545068</v>
+        <v>0.92138963184888878</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>0.50677796447847934</v>
+        <v>0.70289120352199452</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11345,10 +11345,10 @@
         <v>0</v>
       </c>
       <c r="AF55" s="0">
-        <v>0.52296123613583245</v>
+        <v>0.80187127426857052</v>
       </c>
       <c r="AG55" s="0">
-        <v>0.50493969698565411</v>
+        <v>0.63215854563025697</v>
       </c>
       <c r="AH55" s="0">
         <v>0</v>
@@ -11381,13 +11381,13 @@
         <v>0</v>
       </c>
       <c r="AR55" s="0">
-        <v>0.66620915581281048</v>
+        <v>0.71257846637760747</v>
       </c>
       <c r="AS55" s="0">
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>0.5030210034286986</v>
+        <v>0.8660792147924451</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0.74005503640041792</v>
+        <v>0.77613683286963164</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="AV56" s="0">
-        <v>0.61808877507866733</v>
+        <v>0.99925294392696873</v>
       </c>
       <c r="AW56" s="0">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="BM56" s="0">
-        <v>0.77548384137207471</v>
+        <v>0.88792154158262737</v>
       </c>
       <c r="BN56" s="0">
         <v>0</v>
@@ -11730,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>0.83466910952891071</v>
+        <v>0.90718493640478304</v>
       </c>
       <c r="X57" s="0">
         <v>0.93681558361451822</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>0.78460038904373131</v>
+        <v>0.83653713290032194</v>
       </c>
       <c r="Q58" s="0">
         <v>0.66850452686531514</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.5773202852976933</v>
+        <v>0.89629641488710643</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.55073511338015302</v>
+        <v>0.60368194740157533</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.52227253102119087</v>
+        <v>0.91395192603652464</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>0.70578146606242553</v>
+        <v>0.92644377959561652</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>0.54285640846221961</v>
+        <v>0.6461475700869741</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0.77364696049948456</v>
+        <v>0.93869573945314244</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12408,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" s="0">
-        <v>0.88382367231180314</v>
+        <v>0.99291131254780174</v>
       </c>
       <c r="AR60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.82915938569524017</v>
+        <v>0.96875790469893075</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12503,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="0">
-        <v>0.56786443308207468</v>
+        <v>0.61115377231529799</v>
       </c>
       <c r="G61" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0.58535663455229714</v>
+        <v>0.91942276243995069</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.72063340652540631</v>
+        <v>0.76694240168852035</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>0.77403324852376287</v>
+        <v>0.81118862667380376</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="AP63" s="0">
-        <v>0.51074724014395656</v>
+        <v>0.70646068707827092</v>
       </c>
       <c r="AQ63" s="0">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0.86633039649742694</v>
+        <v>0.92486980175470046</v>
       </c>
       <c r="F64" s="0">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>0.68681886628078359</v>
+        <v>0.93611472931350292</v>
       </c>
       <c r="BJ64" s="0">
         <v>0.76694240168852035</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="0">
-        <v>0.62617746350811654</v>
+        <v>0.89607570401388303</v>
       </c>
       <c r="W65" s="0">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="BF65" s="0">
-        <v>0.95966661203634562</v>
+        <v>0.97741174280315568</v>
       </c>
       <c r="BG65" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.55050570329226534</v>
+        <v>0.72485347831311686</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="0">
-        <v>0.64492701576127809</v>
+        <v>0.90873892355127617</v>
       </c>
       <c r="BJ66" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>0.87370978019158518</v>
+        <v>0.93172877985816394</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0.61229375371252615</v>
+        <v>0.86807420133542301</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
